--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-renal-insufficiency-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-renal-insufficiency-panel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4859" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4786" uniqueCount="670">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Renal Insufficiency Panel</t>
+    <t>CH LAB-Report Observation Results: Renal Insufficiency Panel</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -933,7 +933,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1010,7 +1010,6 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="723188008"/&gt;
-    &lt;display value="Renal insufficiency (disorder)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1034,67 +1033,6 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>Collection of Laboratory results in relation to renal insufficiency</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1421,8 +1359,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t>integer
+SampledData</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1464,6 +1402,16 @@
   </si>
   <si>
     <t>valueString</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Observation.value[x]:valueRange</t>
@@ -2003,7 +1951,7 @@
     <t>CKD-EPI</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-report/StructureDefinition/ch-lab-observation-egfr-cr-ckd-epi-2021|http://fhir.ch/ig/ch-lab-report/StructureDefinition/ch-lab-observation-egfr-cr-cys-ckd-epi-2021)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-report/StructureDefinition/ch-lab-observation-egfr-ckd-epi-2021)
 </t>
   </si>
   <si>
@@ -2124,6 +2072,10 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -2134,6 +2086,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRange</t>
@@ -2511,7 +2466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP126"/>
+  <dimension ref="A1:AP124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8322,7 +8277,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>96</v>
@@ -8334,19 +8289,23 @@
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>85</v>
       </c>
@@ -8394,7 +8353,7 @@
         <v>85</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -8406,22 +8365,22 @@
         <v>85</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>85</v>
@@ -8429,21 +8388,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>85</v>
@@ -8455,17 +8414,15 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>85</v>
@@ -8502,31 +8459,31 @@
         <v>85</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>85</v>
@@ -8549,14 +8506,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8572,23 +8529,21 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>325</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>85</v>
       </c>
@@ -8624,19 +8579,19 @@
         <v>85</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>330</v>
+        <v>173</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
@@ -8648,7 +8603,7 @@
         <v>85</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>85</v>
@@ -8657,10 +8612,10 @@
         <v>85</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>332</v>
+        <v>165</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>85</v>
@@ -8671,10 +8626,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8682,7 +8637,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>96</v>
@@ -8700,17 +8655,15 @@
         <v>161</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O52" t="s" s="2">
         <v>337</v>
       </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>85</v>
       </c>
@@ -8719,46 +8672,46 @@
         <v>85</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
@@ -8767,7 +8720,7 @@
         <v>96</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>108</v>
@@ -8779,10 +8732,10 @@
         <v>85</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>85</v>
@@ -8793,10 +8746,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8804,7 +8757,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>96</v>
@@ -8819,20 +8772,18 @@
         <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>85</v>
       </c>
@@ -8856,13 +8807,13 @@
         <v>85</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>85</v>
+        <v>345</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>85</v>
@@ -8880,7 +8831,7 @@
         <v>85</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
@@ -8895,19 +8846,19 @@
         <v>108</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>348</v>
+        <v>85</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>349</v>
+        <v>85</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>350</v>
+        <v>139</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>85</v>
@@ -8915,10 +8866,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8938,18 +8889,20 @@
         <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>349</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>85</v>
@@ -8998,7 +8951,7 @@
         <v>85</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -9010,7 +8963,7 @@
         <v>85</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>85</v>
@@ -9022,7 +8975,7 @@
         <v>85</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>85</v>
@@ -9033,21 +8986,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>85</v>
@@ -9056,19 +9009,19 @@
         <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9106,31 +9059,31 @@
         <v>85</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>173</v>
+        <v>358</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>85</v>
@@ -9142,7 +9095,7 @@
         <v>85</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>85</v>
@@ -9153,10 +9106,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9164,10 +9117,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>85</v>
@@ -9179,16 +9132,16 @@
         <v>97</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9238,16 +9191,16 @@
         <v>85</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>108</v>
@@ -9259,13 +9212,13 @@
         <v>85</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>85</v>
+        <v>318</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>139</v>
+        <v>364</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>85</v>
@@ -9273,14 +9226,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>85</v>
+        <v>366</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9299,18 +9252,20 @@
         <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>85</v>
       </c>
@@ -9334,31 +9289,31 @@
         <v>85</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
@@ -9373,19 +9328,19 @@
         <v>108</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>85</v>
@@ -9393,18 +9348,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>85</v>
+        <v>377</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>96</v>
@@ -9419,18 +9374,20 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>245</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>85</v>
       </c>
@@ -9478,7 +9435,7 @@
         <v>85</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -9493,19 +9450,19 @@
         <v>108</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>85</v>
+        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>85</v>
@@ -9513,10 +9470,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9536,20 +9493,18 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
+        <v>162</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>85</v>
@@ -9598,7 +9553,7 @@
         <v>85</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>164</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
@@ -9610,7 +9565,7 @@
         <v>85</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>85</v>
@@ -9622,7 +9577,7 @@
         <v>85</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>85</v>
@@ -9633,14 +9588,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9656,19 +9611,19 @@
         <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>380</v>
+        <v>141</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>381</v>
+        <v>169</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>382</v>
+        <v>170</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>383</v>
+        <v>171</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9706,19 +9661,19 @@
         <v>85</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>379</v>
+        <v>173</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>83</v>
@@ -9730,7 +9685,7 @@
         <v>85</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>85</v>
@@ -9739,13 +9694,13 @@
         <v>85</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>85</v>
@@ -9753,14 +9708,16 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9776,23 +9733,19 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>85</v>
       </c>
@@ -9840,34 +9793,34 @@
         <v>85</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>392</v>
+        <v>85</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>393</v>
+        <v>85</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>394</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>395</v>
+        <v>85</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>85</v>
@@ -9875,18 +9828,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>397</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>96</v>
@@ -9901,20 +9854,18 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>85</v>
       </c>
@@ -9962,7 +9913,7 @@
         <v>85</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
@@ -9977,19 +9928,19 @@
         <v>108</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>403</v>
+        <v>85</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>85</v>
@@ -9997,10 +9948,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10008,10 +9959,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>85</v>
@@ -10020,19 +9971,21 @@
         <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>162</v>
+        <v>405</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>163</v>
+        <v>406</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>85</v>
       </c>
@@ -10080,34 +10033,34 @@
         <v>85</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>164</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>85</v>
+        <v>408</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>165</v>
+        <v>410</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>85</v>
+        <v>411</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>85</v>
@@ -10115,21 +10068,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>85</v>
@@ -10141,17 +10094,15 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>85</v>
@@ -10188,31 +10139,31 @@
         <v>85</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>85</v>
@@ -10235,23 +10186,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>85</v>
@@ -10263,15 +10212,17 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>411</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>412</v>
+        <v>169</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>85</v>
@@ -10308,16 +10259,16 @@
         <v>85</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>173</v>
@@ -10344,7 +10295,7 @@
         <v>85</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>414</v>
+        <v>165</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>85</v>
@@ -10355,12 +10306,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>85</v>
       </c>
@@ -10369,7 +10322,7 @@
         <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>85</v>
@@ -10378,7 +10331,7 @@
         <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>416</v>
@@ -10389,9 +10342,7 @@
       <c r="M66" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>85</v>
@@ -10440,34 +10391,34 @@
         <v>85</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>415</v>
+        <v>173</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>85</v>
+        <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>422</v>
+        <v>85</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>85</v>
@@ -10475,10 +10426,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10486,10 +10437,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>85</v>
@@ -10501,18 +10452,18 @@
         <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>424</v>
+        <v>161</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>85</v>
       </c>
@@ -10560,34 +10511,34 @@
         <v>85</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>423</v>
+        <v>338</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>428</v>
+        <v>85</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>429</v>
+        <v>85</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>430</v>
+        <v>139</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>85</v>
@@ -10595,10 +10546,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10618,18 +10569,20 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>162</v>
+        <v>341</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>85</v>
@@ -10654,13 +10607,13 @@
         <v>85</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>85</v>
+        <v>345</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>85</v>
@@ -10678,7 +10631,7 @@
         <v>85</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>164</v>
+        <v>347</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -10690,7 +10643,7 @@
         <v>85</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>85</v>
@@ -10702,7 +10655,7 @@
         <v>85</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>85</v>
@@ -10713,21 +10666,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>85</v>
@@ -10736,19 +10689,19 @@
         <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10786,31 +10739,31 @@
         <v>85</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>85</v>
@@ -10822,7 +10775,7 @@
         <v>85</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>85</v>
@@ -10833,14 +10786,12 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>85</v>
       </c>
@@ -10849,7 +10800,7 @@
         <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>85</v>
@@ -10858,18 +10809,20 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>436</v>
+        <v>161</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>85</v>
@@ -10918,22 +10871,22 @@
         <v>85</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>173</v>
+        <v>358</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>439</v>
+        <v>85</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>85</v>
@@ -10942,7 +10895,7 @@
         <v>85</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>85</v>
@@ -10953,10 +10906,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10979,18 +10932,20 @@
         <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>161</v>
+        <v>425</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>85</v>
       </c>
@@ -11026,19 +10981,17 @@
         <v>85</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
@@ -11047,7 +11000,7 @@
         <v>96</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>108</v>
@@ -11056,29 +11009,31 @@
         <v>85</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>85</v>
       </c>
@@ -11087,7 +11042,7 @@
         <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>85</v>
@@ -11099,18 +11054,20 @@
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>85</v>
       </c>
@@ -11134,13 +11091,13 @@
         <v>85</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>365</v>
+        <v>85</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>366</v>
+        <v>85</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>85</v>
@@ -11158,7 +11115,7 @@
         <v>85</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -11167,7 +11124,7 @@
         <v>96</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>108</v>
@@ -11176,29 +11133,31 @@
         <v>85</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>85</v>
       </c>
@@ -11207,7 +11166,7 @@
         <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>85</v>
@@ -11219,18 +11178,20 @@
         <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>85</v>
       </c>
@@ -11278,7 +11239,7 @@
         <v>85</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -11287,7 +11248,7 @@
         <v>96</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>108</v>
@@ -11296,29 +11257,31 @@
         <v>85</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>85</v>
       </c>
@@ -11327,7 +11290,7 @@
         <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>85</v>
@@ -11336,21 +11299,23 @@
         <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>161</v>
+        <v>444</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>85</v>
       </c>
@@ -11398,7 +11363,7 @@
         <v>85</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>83</v>
@@ -11407,10 +11372,10 @@
         <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>108</v>
+        <v>448</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>85</v>
@@ -11419,10 +11384,10 @@
         <v>85</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>85</v>
+        <v>449</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>139</v>
+        <v>450</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>85</v>
@@ -11433,12 +11398,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
       </c>
@@ -11447,7 +11414,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>85</v>
@@ -11456,22 +11423,22 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>85</v>
@@ -11508,17 +11475,19 @@
         <v>85</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>451</v>
+        <v>85</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>83</v>
@@ -11527,39 +11496,39 @@
         <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>452</v>
+        <v>158</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>108</v>
+        <v>457</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>453</v>
+        <v>85</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>454</v>
+        <v>139</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>456</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>85</v>
@@ -11581,19 +11550,19 @@
         <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>161</v>
+        <v>461</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>85</v>
@@ -11642,7 +11611,7 @@
         <v>85</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>83</v>
@@ -11651,7 +11620,7 @@
         <v>96</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>108</v>
@@ -11660,30 +11629,30 @@
         <v>85</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>85</v>
@@ -11702,22 +11671,22 @@
         <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>85</v>
@@ -11766,7 +11735,7 @@
         <v>85</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>83</v>
@@ -11775,39 +11744,39 @@
         <v>96</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>465</v>
+        <v>108</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>85</v>
@@ -11826,22 +11795,22 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>85</v>
@@ -11890,7 +11859,7 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>83</v>
@@ -11899,39 +11868,39 @@
         <v>96</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>474</v>
+        <v>108</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>139</v>
+        <v>434</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>85</v>
@@ -11950,22 +11919,22 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>85</v>
@@ -12014,7 +11983,7 @@
         <v>85</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>
@@ -12023,39 +11992,39 @@
         <v>96</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>452</v>
+        <v>158</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>108</v>
+        <v>474</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>453</v>
+        <v>85</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>456</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>85</v>
@@ -12077,19 +12046,19 @@
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>481</v>
+        <v>285</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>85</v>
@@ -12114,13 +12083,11 @@
         <v>85</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>85</v>
+        <v>479</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>85</v>
@@ -12138,7 +12105,7 @@
         <v>85</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>83</v>
@@ -12147,7 +12114,7 @@
         <v>96</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>108</v>
@@ -12156,31 +12123,29 @@
         <v>85</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>85</v>
       </c>
@@ -12189,7 +12154,7 @@
         <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>85</v>
@@ -12198,22 +12163,22 @@
         <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12238,13 +12203,13 @@
         <v>85</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>85</v>
+        <v>485</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>85</v>
+        <v>486</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>85</v>
@@ -12262,7 +12227,7 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
@@ -12271,7 +12236,7 @@
         <v>96</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>108</v>
@@ -12280,43 +12245,41 @@
         <v>85</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>453</v>
+        <v>85</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>454</v>
+        <v>139</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>456</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>85</v>
+        <v>490</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>85</v>
@@ -12325,19 +12288,19 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>487</v>
+        <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12362,13 +12325,13 @@
         <v>85</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>85</v>
+        <v>495</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>85</v>
+        <v>496</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>85</v>
@@ -12386,49 +12349,47 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>491</v>
+        <v>108</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>85</v>
+        <v>497</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>85</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>85</v>
       </c>
@@ -12437,31 +12398,31 @@
         <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>285</v>
+        <v>502</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
@@ -12486,11 +12447,13 @@
         <v>85</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>496</v>
+        <v>85</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>85</v>
@@ -12508,16 +12471,16 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>452</v>
+        <v>85</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>108</v>
@@ -12526,27 +12489,27 @@
         <v>85</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>453</v>
+        <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>456</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12572,17 +12535,15 @@
         <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>85</v>
       </c>
@@ -12606,13 +12567,13 @@
         <v>85</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>364</v>
+        <v>513</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>85</v>
@@ -12630,7 +12591,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12639,7 +12600,7 @@
         <v>96</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>504</v>
+        <v>85</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>108</v>
@@ -12648,41 +12609,41 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>85</v>
+        <v>516</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>139</v>
+        <v>517</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>85</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>507</v>
+        <v>85</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>85</v>
@@ -12694,16 +12655,16 @@
         <v>285</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>85</v>
@@ -12728,13 +12689,11 @@
         <v>85</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>85</v>
@@ -12752,13 +12711,13 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>85</v>
@@ -12770,27 +12729,27 @@
         <v>85</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>514</v>
+        <v>85</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>517</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12801,10 +12760,10 @@
         <v>83</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>85</v>
@@ -12813,20 +12772,18 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>85</v>
       </c>
@@ -12874,13 +12831,13 @@
         <v>85</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>85</v>
@@ -12892,27 +12849,27 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>85</v>
+        <v>533</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>85</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12935,16 +12892,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>285</v>
+        <v>538</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12970,13 +12927,13 @@
         <v>85</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>530</v>
+        <v>85</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>531</v>
+        <v>85</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>532</v>
+        <v>85</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>85</v>
@@ -12994,7 +12951,7 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>83</v>
@@ -13012,27 +12969,27 @@
         <v>85</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13043,7 +13000,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>85</v>
@@ -13055,19 +13012,19 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>285</v>
+        <v>547</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>85</v>
@@ -13092,11 +13049,13 @@
         <v>85</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>542</v>
+        <v>85</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>85</v>
@@ -13114,19 +13073,19 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>108</v>
+        <v>552</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>85</v>
@@ -13135,10 +13094,10 @@
         <v>85</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>85</v>
@@ -13149,10 +13108,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13175,17 +13134,15 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>546</v>
+        <v>161</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>547</v>
+        <v>162</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>85</v>
@@ -13234,7 +13191,7 @@
         <v>85</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>545</v>
+        <v>164</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>83</v>
@@ -13246,44 +13203,44 @@
         <v>85</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>550</v>
+        <v>85</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>551</v>
+        <v>85</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>552</v>
+        <v>165</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>553</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>85</v>
@@ -13295,16 +13252,16 @@
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>555</v>
+        <v>141</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>556</v>
+        <v>169</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>557</v>
+        <v>170</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>558</v>
+        <v>171</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13354,49 +13311,49 @@
         <v>85</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>554</v>
+        <v>173</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>559</v>
+        <v>85</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>560</v>
+        <v>85</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>561</v>
+        <v>165</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>562</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>85</v>
+        <v>558</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13409,25 +13366,25 @@
         <v>85</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>564</v>
+        <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>567</v>
+        <v>171</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>568</v>
+        <v>242</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>85</v>
@@ -13476,7 +13433,7 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -13488,7 +13445,7 @@
         <v>85</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>569</v>
+        <v>147</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>85</v>
@@ -13497,10 +13454,10 @@
         <v>85</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>570</v>
+        <v>85</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>571</v>
+        <v>139</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>85</v>
@@ -13511,10 +13468,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13537,13 +13494,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>161</v>
+        <v>563</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>162</v>
+        <v>564</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>163</v>
+        <v>565</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13594,7 +13551,7 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>164</v>
+        <v>562</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -13603,10 +13560,10 @@
         <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>85</v>
+        <v>566</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>85</v>
@@ -13615,10 +13572,10 @@
         <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>85</v>
+        <v>567</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>165</v>
+        <v>568</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>85</v>
@@ -13629,21 +13586,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>85</v>
@@ -13655,17 +13612,15 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>141</v>
+        <v>563</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>169</v>
+        <v>570</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>85</v>
@@ -13714,19 +13669,19 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>173</v>
+        <v>569</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>85</v>
+        <v>566</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>85</v>
@@ -13735,10 +13690,10 @@
         <v>85</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>85</v>
+        <v>567</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>165</v>
+        <v>572</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>85</v>
@@ -13749,45 +13704,45 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>575</v>
+        <v>85</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>85</v>
@@ -13812,13 +13767,13 @@
         <v>85</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>85</v>
+        <v>578</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>85</v>
+        <v>579</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>85</v>
@@ -13836,31 +13791,31 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>85</v>
+        <v>581</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>139</v>
+        <v>499</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>85</v>
@@ -13871,10 +13826,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13885,7 +13840,7 @@
         <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>85</v>
@@ -13897,16 +13852,20 @@
         <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>580</v>
+        <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>85</v>
       </c>
@@ -13930,13 +13889,13 @@
         <v>85</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>85</v>
+        <v>513</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>85</v>
+        <v>587</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>85</v>
+        <v>588</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>85</v>
@@ -13954,16 +13913,16 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>583</v>
+        <v>85</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>108</v>
@@ -13972,13 +13931,13 @@
         <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>585</v>
+        <v>499</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>85</v>
@@ -13989,10 +13948,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14015,16 +13974,18 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>85</v>
       </c>
@@ -14072,7 +14033,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -14081,7 +14042,7 @@
         <v>96</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>583</v>
+        <v>85</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>108</v>
@@ -14093,10 +14054,10 @@
         <v>85</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>584</v>
+        <v>85</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>85</v>
@@ -14107,10 +14068,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14133,20 +14094,16 @@
         <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>285</v>
+        <v>161</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>85</v>
       </c>
@@ -14170,31 +14127,31 @@
         <v>85</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
@@ -14212,13 +14169,13 @@
         <v>85</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>597</v>
+        <v>85</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>85</v>
@@ -14240,7 +14197,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>83</v>
+        <v>600</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>84</v>
@@ -14252,23 +14209,21 @@
         <v>85</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>285</v>
+        <v>601</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>85</v>
       </c>
@@ -14292,28 +14247,26 @@
         <v>85</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>530</v>
+        <v>85</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>604</v>
+        <v>85</v>
       </c>
       <c r="Z98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB98" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="AA98" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>599</v>
@@ -14334,13 +14287,13 @@
         <v>85</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>597</v>
+        <v>85</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>516</v>
+        <v>607</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>85</v>
@@ -14351,44 +14304,48 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="D99" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="F99" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>96</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>85</v>
       </c>
@@ -14436,13 +14393,13 @@
         <v>85</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>85</v>
@@ -14457,10 +14414,10 @@
         <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>85</v>
+        <v>606</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>85</v>
@@ -14474,38 +14431,44 @@
         <v>612</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="F100" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>96</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>161</v>
+        <v>614</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>85</v>
@@ -14554,13 +14517,13 @@
         <v>85</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>85</v>
@@ -14575,10 +14538,10 @@
         <v>85</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>85</v>
@@ -14600,7 +14563,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>617</v>
+        <v>83</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>84</v>
@@ -14615,16 +14578,16 @@
         <v>97</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14662,14 +14625,16 @@
         <v>85</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AC101" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD101" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>616</v>
@@ -14693,10 +14658,10 @@
         <v>85</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>85</v>
@@ -14707,28 +14672,24 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="E102" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>85</v>
@@ -14737,18 +14698,20 @@
         <v>97</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>627</v>
+        <v>547</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>85</v>
       </c>
@@ -14796,7 +14759,7 @@
         <v>85</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>83</v>
@@ -14817,10 +14780,10 @@
         <v>85</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>85</v>
@@ -14834,44 +14797,38 @@
         <v>629</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>630</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="E103" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>96</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>631</v>
+        <v>161</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>632</v>
+        <v>162</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>85</v>
@@ -14920,19 +14877,19 @@
         <v>85</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>616</v>
+        <v>164</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>85</v>
@@ -14941,10 +14898,10 @@
         <v>85</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>623</v>
+        <v>85</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>624</v>
+        <v>165</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>85</v>
@@ -14955,10 +14912,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14978,20 +14935,18 @@
         <v>85</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>634</v>
+        <v>141</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>635</v>
+        <v>182</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>85</v>
@@ -15028,19 +14983,17 @@
         <v>85</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AC104" s="2"/>
       <c r="AD104" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>633</v>
+        <v>173</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>83</v>
@@ -15052,7 +15005,7 @@
         <v>85</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>85</v>
@@ -15061,10 +15014,10 @@
         <v>85</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>623</v>
+        <v>85</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>638</v>
+        <v>85</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>85</v>
@@ -15075,12 +15028,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D105" t="s" s="2">
         <v>85</v>
       </c>
@@ -15089,7 +15044,7 @@
         <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>85</v>
@@ -15098,23 +15053,19 @@
         <v>85</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>564</v>
+        <v>231</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>640</v>
+        <v>232</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>85</v>
       </c>
@@ -15162,7 +15113,7 @@
         <v>85</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>639</v>
+        <v>173</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>83</v>
@@ -15171,10 +15122,10 @@
         <v>84</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>85</v>
@@ -15183,10 +15134,10 @@
         <v>85</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>644</v>
+        <v>85</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>645</v>
+        <v>139</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>85</v>
@@ -15197,10 +15148,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15315,10 +15266,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15329,7 +15280,7 @@
         <v>83</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>85</v>
@@ -15388,7 +15339,9 @@
       <c r="AB107" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AC107" s="2"/>
+      <c r="AC107" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>85</v>
       </c>
@@ -15431,20 +15384,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>96</v>
@@ -15459,22 +15410,24 @@
         <v>85</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>85</v>
@@ -15516,19 +15469,19 @@
         <v>85</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>85</v>
@@ -15551,10 +15504,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15562,7 +15515,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>96</v>
@@ -15577,13 +15530,13 @@
         <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15634,7 +15587,7 @@
         <v>85</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>83</v>
@@ -15646,7 +15599,7 @@
         <v>85</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>85</v>
@@ -15658,7 +15611,7 @@
         <v>85</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>85</v>
@@ -15669,42 +15622,46 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>85</v>
+        <v>558</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>141</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>182</v>
+        <v>559</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>85</v>
       </c>
@@ -15740,19 +15697,19 @@
         <v>85</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>173</v>
+        <v>561</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>83</v>
@@ -15776,7 +15733,7 @@
         <v>85</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>85</v>
@@ -15787,10 +15744,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15810,27 +15767,29 @@
         <v>85</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>185</v>
+        <v>642</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>186</v>
+        <v>643</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O111" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>85</v>
@@ -15848,13 +15807,13 @@
         <v>85</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>85</v>
+        <v>513</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>85</v>
+        <v>645</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>85</v>
+        <v>646</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>85</v>
@@ -15872,7 +15831,7 @@
         <v>85</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>188</v>
+        <v>641</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>96</v>
@@ -15884,22 +15843,22 @@
         <v>85</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>85</v>
+        <v>647</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>85</v>
+        <v>318</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>85</v>
@@ -15907,10 +15866,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15918,7 +15877,7 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>96</v>
@@ -15930,19 +15889,23 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>238</v>
+        <v>649</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>192</v>
+        <v>650</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>85</v>
       </c>
@@ -15978,19 +15941,17 @@
         <v>85</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="AC112" s="2"/>
       <c r="AD112" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>194</v>
+        <v>648</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>83</v>
@@ -16008,62 +15969,64 @@
         <v>85</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>85</v>
+        <v>652</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D113" t="s" s="2">
-        <v>575</v>
+        <v>85</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>577</v>
+        <v>427</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>171</v>
+        <v>651</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>242</v>
+        <v>429</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>85</v>
@@ -16112,53 +16075,55 @@
         <v>85</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>85</v>
+        <v>652</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="D114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>96</v>
@@ -16173,19 +16138,19 @@
         <v>97</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>285</v>
+        <v>441</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>660</v>
+        <v>427</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>313</v>
+        <v>429</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>85</v>
@@ -16210,13 +16175,13 @@
         <v>85</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>530</v>
+        <v>85</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>662</v>
+        <v>85</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>663</v>
+        <v>85</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>85</v>
@@ -16234,10 +16199,10 @@
         <v>85</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>96</v>
@@ -16252,29 +16217,31 @@
         <v>85</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>648</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="D115" t="s" s="2">
         <v>85</v>
       </c>
@@ -16292,22 +16259,22 @@
         <v>85</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L115" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="M115" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N115" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="O115" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>85</v>
@@ -16344,17 +16311,19 @@
         <v>85</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AC115" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD115" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -16363,39 +16332,39 @@
         <v>96</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>108</v>
+        <v>448</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>668</v>
+        <v>85</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>456</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>85</v>
@@ -16414,22 +16383,22 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>161</v>
+        <v>453</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>666</v>
+        <v>454</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>667</v>
+        <v>456</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>85</v>
@@ -16478,7 +16447,7 @@
         <v>85</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -16487,36 +16456,36 @@
         <v>96</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>108</v>
+        <v>457</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>668</v>
+        <v>85</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>454</v>
+        <v>139</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>456</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>460</v>
@@ -16538,22 +16507,22 @@
         <v>85</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>461</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>462</v>
+        <v>650</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>464</v>
+        <v>651</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>85</v>
@@ -16602,7 +16571,7 @@
         <v>85</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -16611,39 +16580,39 @@
         <v>96</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>465</v>
+        <v>108</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>85</v>
+        <v>652</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>85</v>
@@ -16662,22 +16631,22 @@
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>471</v>
+        <v>650</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>473</v>
+        <v>651</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>85</v>
@@ -16726,7 +16695,7 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -16735,39 +16704,39 @@
         <v>96</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>474</v>
+        <v>108</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>85</v>
+        <v>652</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>139</v>
+        <v>434</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>85</v>
@@ -16789,19 +16758,19 @@
         <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>85</v>
@@ -16850,7 +16819,7 @@
         <v>85</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -16868,30 +16837,30 @@
         <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>85</v>
@@ -16910,22 +16879,22 @@
         <v>85</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>666</v>
+        <v>471</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>667</v>
+        <v>473</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>85</v>
@@ -16974,7 +16943,7 @@
         <v>85</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>83</v>
@@ -16983,39 +16952,39 @@
         <v>96</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>108</v>
+        <v>474</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>668</v>
+        <v>85</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>456</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>85</v>
@@ -17037,19 +17006,19 @@
         <v>97</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>484</v>
+        <v>285</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>85</v>
@@ -17074,13 +17043,11 @@
         <v>85</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>85</v>
+        <v>479</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>85</v>
@@ -17098,7 +17065,7 @@
         <v>85</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>83</v>
@@ -17116,31 +17083,29 @@
         <v>85</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
         <v>85</v>
       </c>
@@ -17161,19 +17126,19 @@
         <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>487</v>
+        <v>285</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>488</v>
+        <v>663</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>489</v>
+        <v>664</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>490</v>
+        <v>665</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>85</v>
@@ -17198,13 +17163,13 @@
         <v>85</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>85</v>
+        <v>344</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>85</v>
+        <v>485</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>85</v>
+        <v>486</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>85</v>
@@ -17222,7 +17187,7 @@
         <v>85</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
@@ -17231,10 +17196,10 @@
         <v>96</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>158</v>
+        <v>487</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>491</v>
+        <v>108</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>85</v>
@@ -17243,10 +17208,10 @@
         <v>85</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>492</v>
+        <v>139</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>85</v>
@@ -17257,23 +17222,21 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>85</v>
+        <v>490</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>85</v>
@@ -17282,22 +17245,22 @@
         <v>85</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>285</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>666</v>
+        <v>491</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>667</v>
+        <v>493</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>85</v>
@@ -17322,9 +17285,11 @@
         <v>85</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y123" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="Z123" t="s" s="2">
         <v>496</v>
       </c>
@@ -17344,13 +17309,13 @@
         <v>85</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>85</v>
@@ -17362,27 +17327,27 @@
         <v>85</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>668</v>
+        <v>497</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>456</v>
+        <v>500</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17393,7 +17358,7 @@
         <v>83</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>85</v>
@@ -17405,19 +17370,19 @@
         <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>85</v>
@@ -17442,13 +17407,13 @@
         <v>85</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>502</v>
+        <v>85</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>503</v>
+        <v>85</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>85</v>
@@ -17466,16 +17431,16 @@
         <v>85</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>504</v>
+        <v>85</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>108</v>
@@ -17487,264 +17452,20 @@
         <v>85</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>139</v>
+        <v>553</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP126" t="s" s="2">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP126">
+  <autoFilter ref="A1:AP124">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17754,7 +17475,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI125">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-renal-insufficiency-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-renal-insufficiency-panel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4786" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4786" uniqueCount="654">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -483,7 +483,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -491,6 +491,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -507,10 +511,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -741,7 +741,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1253,7 +1253,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1331,7 +1331,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1424,25 +1424,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1453,22 +1434,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1509,30 +1474,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2475,15 +2424,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2494,28 +2443,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3696,7 +3645,7 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>147</v>
@@ -3722,13 +3671,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>85</v>
@@ -3750,13 +3699,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3816,7 +3765,7 @@
         <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>147</v>
@@ -6194,7 +6143,7 @@
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>147</v>
@@ -6314,7 +6263,7 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>147</v>
@@ -6434,7 +6383,7 @@
         <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>147</v>
@@ -6494,7 +6443,7 @@
         <v>232</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6554,7 +6503,7 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>147</v>
@@ -10322,7 +10271,7 @@
         <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>85</v>
@@ -11299,19 +11248,19 @@
         <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>444</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>429</v>
@@ -11372,39 +11321,39 @@
         <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
@@ -11423,19 +11372,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>429</v>
@@ -11496,39 +11445,39 @@
         <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>457</v>
+        <v>108</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>139</v>
+        <v>434</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>85</v>
@@ -11550,7 +11499,7 @@
         <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>426</v>
@@ -11646,13 +11595,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>85</v>
@@ -11674,7 +11623,7 @@
         <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>426</v>
@@ -11770,13 +11719,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>85</v>
@@ -11798,7 +11747,7 @@
         <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>426</v>
@@ -11894,13 +11843,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>85</v>
@@ -11919,19 +11868,19 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>429</v>
@@ -11992,39 +11941,39 @@
         <v>96</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>158</v>
+        <v>432</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>474</v>
+        <v>108</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>424</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>85</v>
@@ -12046,7 +11995,7 @@
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>285</v>
+        <v>462</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>426</v>
@@ -12087,7 +12036,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>85</v>
@@ -12140,10 +12089,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12169,16 +12118,16 @@
         <v>285</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12206,10 +12155,10 @@
         <v>344</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>85</v>
@@ -12227,7 +12176,7 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
@@ -12236,7 +12185,7 @@
         <v>96</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>108</v>
@@ -12251,7 +12200,7 @@
         <v>139</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>85</v>
@@ -12262,14 +12211,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12291,16 +12240,16 @@
         <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12328,10 +12277,10 @@
         <v>344</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>85</v>
@@ -12349,7 +12298,7 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
@@ -12367,27 +12316,27 @@
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12410,19 +12359,19 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
@@ -12471,7 +12420,7 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
@@ -12492,10 +12441,10 @@
         <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>85</v>
@@ -12506,10 +12455,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12535,13 +12484,13 @@
         <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12567,13 +12516,13 @@
         <v>85</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>85</v>
@@ -12591,7 +12540,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12609,27 +12558,27 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12655,16 +12604,16 @@
         <v>285</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>85</v>
@@ -12693,7 +12642,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>85</v>
@@ -12711,7 +12660,7 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -12732,10 +12681,10 @@
         <v>85</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>85</v>
@@ -12746,10 +12695,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12772,16 +12721,16 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12831,7 +12780,7 @@
         <v>85</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -12849,27 +12798,27 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12892,16 +12841,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12951,7 +12900,7 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>83</v>
@@ -12969,27 +12918,27 @@
         <v>85</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13012,19 +12961,19 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>85</v>
@@ -13073,7 +13022,7 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -13085,7 +13034,7 @@
         <v>85</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>85</v>
@@ -13094,10 +13043,10 @@
         <v>85</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>85</v>
@@ -13108,10 +13057,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13226,10 +13175,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13346,14 +13295,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13375,10 +13324,10 @@
         <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>171</v>
@@ -13433,7 +13382,7 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -13468,10 +13417,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13494,13 +13443,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13551,7 +13500,7 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -13560,7 +13509,7 @@
         <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>108</v>
@@ -13572,10 +13521,10 @@
         <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>85</v>
@@ -13586,10 +13535,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13612,13 +13561,13 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13669,7 +13618,7 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
@@ -13678,7 +13627,7 @@
         <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>108</v>
@@ -13690,10 +13639,10 @@
         <v>85</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>85</v>
@@ -13704,10 +13653,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13733,16 +13682,16 @@
         <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>85</v>
@@ -13770,10 +13719,10 @@
         <v>120</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>85</v>
@@ -13791,7 +13740,7 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
@@ -13809,13 +13758,13 @@
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>85</v>
@@ -13826,10 +13775,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13855,16 +13804,16 @@
         <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>85</v>
@@ -13889,13 +13838,13 @@
         <v>85</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>85</v>
@@ -13913,7 +13862,7 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
@@ -13931,13 +13880,13 @@
         <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>85</v>
@@ -13948,10 +13897,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13974,17 +13923,17 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>85</v>
@@ -14033,7 +13982,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -14057,7 +14006,7 @@
         <v>85</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>85</v>
@@ -14068,10 +14017,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14097,10 +14046,10 @@
         <v>161</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14151,7 +14100,7 @@
         <v>85</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
@@ -14172,10 +14121,10 @@
         <v>85</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>85</v>
@@ -14186,10 +14135,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14197,7 +14146,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>84</v>
@@ -14212,16 +14161,16 @@
         <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14259,7 +14208,7 @@
         <v>85</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14269,7 +14218,7 @@
         <v>145</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>83</v>
@@ -14290,10 +14239,10 @@
         <v>85</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>85</v>
@@ -14304,13 +14253,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>85</v>
@@ -14334,16 +14283,16 @@
         <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14393,7 +14342,7 @@
         <v>85</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
@@ -14414,10 +14363,10 @@
         <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>85</v>
@@ -14428,13 +14377,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>85</v>
@@ -14458,16 +14407,16 @@
         <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14517,7 +14466,7 @@
         <v>85</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>83</v>
@@ -14538,10 +14487,10 @@
         <v>85</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>85</v>
@@ -14552,10 +14501,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14578,16 +14527,16 @@
         <v>97</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14637,7 +14586,7 @@
         <v>85</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>83</v>
@@ -14658,10 +14607,10 @@
         <v>85</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>85</v>
@@ -14672,10 +14621,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14698,19 +14647,19 @@
         <v>97</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>85</v>
@@ -14759,7 +14708,7 @@
         <v>85</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>83</v>
@@ -14780,10 +14729,10 @@
         <v>85</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>85</v>
@@ -14794,10 +14743,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14912,10 +14861,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15028,10 +14977,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>230</v>
@@ -15062,7 +15011,7 @@
         <v>232</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -15122,7 +15071,7 @@
         <v>84</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>147</v>
@@ -15148,10 +15097,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15266,10 +15215,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15384,10 +15333,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15504,10 +15453,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15622,14 +15571,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15651,10 +15600,10 @@
         <v>141</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>171</v>
@@ -15709,7 +15658,7 @@
         <v>85</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>83</v>
@@ -15744,10 +15693,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15773,13 +15722,13 @@
         <v>285</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>313</v>
@@ -15807,13 +15756,13 @@
         <v>85</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>85</v>
@@ -15831,7 +15780,7 @@
         <v>85</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>96</v>
@@ -15849,7 +15798,7 @@
         <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>318</v>
@@ -15866,10 +15815,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15892,16 +15841,16 @@
         <v>97</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>429</v>
@@ -15951,7 +15900,7 @@
         <v>145</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>83</v>
@@ -15969,7 +15918,7 @@
         <v>85</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>434</v>
@@ -15986,10 +15935,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>438</v>
@@ -16017,13 +15966,13 @@
         <v>161</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>429</v>
@@ -16075,7 +16024,7 @@
         <v>85</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
@@ -16093,7 +16042,7 @@
         <v>85</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>434</v>
@@ -16110,10 +16059,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>440</v>
@@ -16141,13 +16090,13 @@
         <v>441</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>429</v>
@@ -16199,7 +16148,7 @@
         <v>85</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>83</v>
@@ -16217,7 +16166,7 @@
         <v>85</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>434</v>
@@ -16234,10 +16183,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>443</v>
@@ -16259,19 +16208,19 @@
         <v>85</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>444</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>445</v>
+        <v>634</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>447</v>
+        <v>635</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>429</v>
@@ -16323,7 +16272,7 @@
         <v>85</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -16332,39 +16281,39 @@
         <v>96</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>85</v>
+        <v>636</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>85</v>
@@ -16383,19 +16332,19 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>454</v>
+        <v>634</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>456</v>
+        <v>635</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>429</v>
@@ -16447,7 +16396,7 @@
         <v>85</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -16456,39 +16405,39 @@
         <v>96</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>457</v>
+        <v>108</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>85</v>
+        <v>636</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>139</v>
+        <v>434</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>85</v>
@@ -16510,16 +16459,16 @@
         <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>429</v>
@@ -16571,7 +16520,7 @@
         <v>85</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -16589,7 +16538,7 @@
         <v>85</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>434</v>
@@ -16606,13 +16555,13 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>85</v>
@@ -16634,16 +16583,16 @@
         <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>429</v>
@@ -16695,7 +16644,7 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -16713,7 +16662,7 @@
         <v>85</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>434</v>
@@ -16730,13 +16679,13 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>85</v>
@@ -16758,16 +16707,16 @@
         <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>429</v>
@@ -16819,7 +16768,7 @@
         <v>85</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -16837,7 +16786,7 @@
         <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>434</v>
@@ -16854,13 +16803,13 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>85</v>
@@ -16879,19 +16828,19 @@
         <v>85</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>471</v>
+        <v>634</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>473</v>
+        <v>635</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>429</v>
@@ -16943,7 +16892,7 @@
         <v>85</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>83</v>
@@ -16952,39 +16901,39 @@
         <v>96</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>474</v>
+        <v>108</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>85</v>
+        <v>636</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>85</v>
@@ -17006,16 +16955,16 @@
         <v>97</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>285</v>
+        <v>462</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>427</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>429</v>
@@ -17047,7 +16996,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>85</v>
@@ -17065,7 +17014,7 @@
         <v>85</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>83</v>
@@ -17083,7 +17032,7 @@
         <v>85</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>434</v>
@@ -17100,10 +17049,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17129,16 +17078,16 @@
         <v>285</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>85</v>
@@ -17166,10 +17115,10 @@
         <v>344</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>85</v>
@@ -17187,7 +17136,7 @@
         <v>85</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
@@ -17196,7 +17145,7 @@
         <v>96</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>108</v>
@@ -17211,7 +17160,7 @@
         <v>139</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>85</v>
@@ -17222,14 +17171,14 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17251,16 +17200,16 @@
         <v>285</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>85</v>
@@ -17288,10 +17237,10 @@
         <v>344</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>85</v>
@@ -17309,7 +17258,7 @@
         <v>85</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>83</v>
@@ -17327,27 +17276,27 @@
         <v>85</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17373,16 +17322,16 @@
         <v>85</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>85</v>
@@ -17431,7 +17380,7 @@
         <v>85</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>83</v>
@@ -17452,10 +17401,10 @@
         <v>85</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>85</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-renal-insufficiency-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-renal-insufficiency-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -392,7 +392,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -818,7 +818,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -930,7 +930,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1110,7 +1110,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1155,7 +1155,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1178,7 +1178,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1506,7 +1506,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1538,7 +1538,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1597,7 +1597,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1668,7 +1668,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1798,7 +1798,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1831,7 +1831,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1923,7 +1923,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2011,7 +2011,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -12209,7 +12209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>473</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>485</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>592</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>596</v>
       </c>
@@ -17415,12 +17415,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP124">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
